--- a/MelboR2/Earnings.xlsx
+++ b/MelboR2/Earnings.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plb32/PycharmProjects/GithubMelboR2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plb32/PycharmProjects/MelboR2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8978DFCE-A61D-FD48-92A1-2C3D71727582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75BBC3-9218-5F44-869F-F944EE03C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{2615183A-2A7C-524D-B38B-EFBF93FF7623}"/>
+    <workbookView xWindow="6220" yWindow="1600" windowWidth="27640" windowHeight="16940" xr2:uid="{2615183A-2A7C-524D-B38B-EFBF93FF7623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t># holdings -- begin</t>
   </si>
@@ -62,24 +62,6 @@
     <t>cash</t>
   </si>
   <si>
-    <t>cash__initial</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>stock__initial</t>
-  </si>
-  <si>
-    <t>stock__shorts</t>
-  </si>
-  <si>
-    <t>stock__buy</t>
-  </si>
-  <si>
-    <t>stock__sell</t>
-  </si>
-  <si>
     <t>cogent-ace</t>
   </si>
   <si>
@@ -150,6 +132,9 @@
   </si>
   <si>
     <t># holdings -- end</t>
+  </si>
+  <si>
+    <t>FINAL</t>
   </si>
 </sst>
 </file>
@@ -165,12 +150,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEED3CE-B493-0444-B9D9-2984DE197B1B}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,30 +529,15 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -572,36 +549,22 @@
         <v>1615</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>24500</v>
       </c>
       <c r="H3">
-        <v>24500</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <f>MIN(80,MAX(40,10+G5/500))</f>
+        <v>68.650000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2029</v>
@@ -613,36 +576,25 @@
         <v>1615</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>20120</v>
       </c>
       <c r="H4">
-        <v>20965</v>
-      </c>
-      <c r="I4">
-        <v>34</v>
-      </c>
-      <c r="J4">
-        <v>32</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H4:H13" si="0">MIN(80,MAX(40,10+G6/500))</f>
+        <v>62.86</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2030</v>
@@ -654,36 +606,25 @@
         <v>1615</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>29325</v>
       </c>
       <c r="H5">
-        <v>29180</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>52.7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2031</v>
@@ -695,36 +636,25 @@
         <v>1615</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>26430</v>
       </c>
       <c r="H6">
-        <v>26430</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>54.88</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2032</v>
@@ -736,36 +666,25 @@
         <v>1615</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>21350</v>
       </c>
       <c r="H7">
-        <v>21045</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>59.65</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2033</v>
@@ -777,36 +696,25 @@
         <v>1615</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>22440</v>
       </c>
       <c r="H8">
-        <v>21715</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>68.62</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>2034</v>
@@ -818,36 +726,25 @@
         <v>1615</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>24825</v>
       </c>
       <c r="H9">
-        <v>24450</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2035</v>
@@ -859,36 +756,25 @@
         <v>1615</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <v>29310</v>
       </c>
       <c r="H10">
-        <v>29140</v>
-      </c>
-      <c r="I10">
-        <v>40</v>
-      </c>
-      <c r="J10">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>2036</v>
@@ -900,36 +786,25 @@
         <v>1615</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>23000</v>
       </c>
       <c r="H11">
-        <v>23875</v>
-      </c>
-      <c r="I11">
-        <v>35</v>
-      </c>
-      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>59.4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
       </c>
       <c r="C12">
         <v>2037</v>
@@ -941,36 +816,22 @@
         <v>1615</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>24500</v>
       </c>
       <c r="H12">
-        <v>24500</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2038</v>
@@ -982,33 +843,19 @@
         <v>1615</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>24700</v>
       </c>
       <c r="H13">
-        <v>24700</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
